--- a/cheque_table.xlsx
+++ b/cheque_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>analysis</t>
         </is>
       </c>
@@ -503,57 +508,397 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>01 006 035112 0018 16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ASSOCIATION DE DEVELOPPEMENT INTEGR</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ons Hasni</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000 DT</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0501069</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>850.03</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>31/08/2025</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>cheque_images\front_0501069_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>cheque_images\back_0501069_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>sign_images\0501069_signature.jpg</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Arab Tunisian Bank (ATB)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{'potential_customer': False, 'fraud_risk': True, 'analysis': {'bank': 'Arab Tunisian Bank (ATB)', 'high_plafond': False, 'high_amount_ratio': False, 'periodic_high_transactions': False, 'near_plafond': True, 'small_amounts_high_plafond': False, 'successive_cheques_same_sender': True}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01 006 035112 0019 58 12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01 006 035112 0018 16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ASSOCIATION DE DEVELOPPEMENT INTEGR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ons Hasni</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1000 DT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0501069</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>850.03</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31/08/2025</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>cheque_images\front_0501069_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>cheque_images\back_0501069_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>sign_images\0501069_signature.jpg</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Arab Tunisian Bank (ATB)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{'potential_customer': False, 'fraud_risk': True, 'analysis': {'bank': 'Arab Tunisian Bank (ATB)', 'high_plafond': False, 'high_amount_ratio': False, 'periodic_high_transactions': False, 'near_plafond': True, 'small_amounts_high_plafond': False, 'successive_cheques_same_sender': True}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Non détecté</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01 006 035112 001846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>STE EXPRESS LOGISTIC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HOTEL ROYAL MANSOUR</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Non détecté</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0004667</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8691,200</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23/11/2018</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>cheque_images\front_0004667_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>cheque_images\back_0004667_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>sign_images\0004667_signature.jpg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{'potential_customer': False, 'fraud_risk': True, 'analysis': {'bank': 'Unknown', 'high_plafond': False, 'high_amount_ratio': False, 'periodic_high_transactions': False, 'near_plafond': True, 'small_amounts_high_plafond': False, 'successive_cheques_same_sender': True}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01 005 0341105002820 23</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>01 006 035112 0018 46</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SOCIETE WALLYS CAR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eric Dupont</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>400DT.000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2571693</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>quatre cent dinars</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12/05/03</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>cheque_images\front_2571693_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>cheque_images\back_2571693_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>sign_images\2571693_signature.jpg</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Arab Tunisian Bank (ATB)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{'potential_customer': False, 'fraud_risk': False, 'analysis': {'bank': 'Arab Tunisian Bank (ATB)', 'high_plafond': False, 'high_amount_ratio': False, 'periodic_high_transactions': False, 'near_plafond': False, 'small_amounts_high_plafond': False, 'successive_cheques_same_sender': True}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01 006 035112 0019 58 12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01 006 035112 0018 16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>ASSOCIATION DE DEVELOPPEMENT INTEGR</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ons Haani</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ons Hasni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1000 DT</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0501069</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>850.03</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>31/08/2025</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cheque_images\front_0501069_cheque.jpg</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>cheque_images\back_0501069_cheque.jpg</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>sign_images\0501069_signature.jpg</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{'potential_customer': False, 'fraud_risk': True, 'analysis': {'bank': 'Unknown', 'successive_cheques_same_sender': True, 'near_plafond': True}}</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Arab Tunisian Bank (ATB)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{'potential_customer': False, 'fraud_risk': True, 'analysis': {'bank': 'Arab Tunisian Bank (ATB)', 'high_plafond': False, 'high_amount_ratio': False, 'periodic_high_transactions': False, 'near_plafond': True, 'small_amounts_high_plafond': False, 'successive_cheques_same_sender': True}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01 006 035112 0019 58 12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01 006 035112 0018 46</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ASSOCIATION DE DEVELOPPEMENT INTEGR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ons Hasni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1000 DT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0501069</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>850.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>31/08/2025</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>cheque_images\front_0501069_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>cheque_images\back_0501069_cheque.jpg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>sign_images\0501069_signature.jpg</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Arab Tunisian Bank (ATB)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{'potential_customer': False, 'fraud_risk': True, 'analysis': {'bank': 'Arab Tunisian Bank (ATB)', 'high_plafond': False, 'high_amount_ratio': False, 'periodic_high_transactions': False, 'near_plafond': True, 'small_amounts_high_plafond': False, 'successive_cheques_same_sender': True}}</t>
         </is>
       </c>
     </row>
